--- a/d2019_position.xlsx
+++ b/d2019_position.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/stefanie_lane_ubc_ca/Documents/Documents/Dissertation/CommunityStability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{9E7352BD-186F-4131-BD14-8673BDC7B376}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{F1DA1ED6-7DFE-43C6-B4A1-44226896F1B7}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{9E7352BD-186F-4131-BD14-8673BDC7B376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87A58855-AFAC-4A4C-9688-0A4A83A24D29}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -292,9 +292,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -324,28 +321,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,1589 +614,1302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q165"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7265625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="13.26953125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" style="3" customWidth="1"/>
-    <col min="10" max="14" width="9.1796875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="10.7265625" style="1" customWidth="1"/>
-    <col min="16" max="17" width="10.7265625" style="4" customWidth="1"/>
-    <col min="18" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" customWidth="1"/>
+    <col min="4" max="5" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" customWidth="1"/>
+    <col min="7" max="8" width="13.21875" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" customWidth="1"/>
+    <col min="10" max="14" width="9.21875" customWidth="1"/>
+    <col min="15" max="17" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="12">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>43635</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="1">
         <v>5.5</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="12">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>43635</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="1">
         <v>20.5</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>43635</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <v>36.25</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>43635</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1">
         <v>46.5</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="2">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>43635</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <v>53.2</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>43635</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
         <v>61.2</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="2">
         <v>6</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>43635</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>70.55</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="2">
         <v>7</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>43635</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="1">
         <v>76.349999999999994</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="2">
         <v>8</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <v>43635</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="1">
         <v>84.15</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="2">
         <v>9</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="12">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>43637</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="1">
         <v>97.4</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="2">
         <v>10</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <v>43637</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="1">
         <v>117.5</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="2">
         <v>11</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
         <v>43637</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="1">
         <v>132</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="2">
         <v>12</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="12">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
         <v>43637</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="1">
         <v>140</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="2">
         <v>13</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="12">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
         <v>43637</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="1">
         <v>155.30000000000001</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="2">
         <v>14</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="12">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
         <v>43637</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="1">
         <v>165.6</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="2">
         <v>15</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="12">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
         <v>43643</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="1">
         <v>1.3</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="2">
         <v>16</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="12">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
         <v>43643</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="1">
         <v>3.4</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="2">
         <v>17</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="12">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
         <v>43643</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="1">
         <v>14.3</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="2">
         <v>18</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="12">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
         <v>43643</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="1">
         <v>26.3</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="2">
         <v>19</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="12">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
         <v>43643</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="1">
         <v>36.75</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="2">
         <v>20</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="12">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
         <v>43643</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="1">
         <v>50.1</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="2">
         <v>21</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="12">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
         <v>43643</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="1">
         <v>59.4</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="2">
         <v>22</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="12">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
         <v>43643</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="1">
         <v>69</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="2">
         <v>23</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="12">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
         <v>43643</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="1">
         <v>81.5</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="2">
         <v>24</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="12">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
         <v>43643</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="1">
         <v>102</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="2">
         <v>25</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="12">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
         <v>43643</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="1">
         <v>123.5</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="2">
         <v>26</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="12">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
         <v>43643</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="1">
         <v>134</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="2">
         <v>27</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="12">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
         <v>43643</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="1">
         <v>139.5</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="2">
         <v>28</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="12">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
         <v>43643</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="1">
         <v>152</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="2">
         <v>29</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="12">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
         <v>43644</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="1">
         <v>4.5</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="2">
         <v>30</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="12">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
         <v>43644</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="1">
         <v>15</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="2">
         <v>31</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33" s="12">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
         <v>43644</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="1">
         <v>25.5</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="2">
         <v>32</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34" s="12">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
         <v>43644</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="1">
         <v>38</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="2">
         <v>33</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35" s="12">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
         <v>43644</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="1">
         <v>49.5</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="2">
         <v>34</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" s="12">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
         <v>43644</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="1">
         <v>63</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="2">
         <v>35</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37" s="12">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
         <v>43644</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="1">
         <v>73</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="2">
         <v>36</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A38" s="12">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
         <v>43644</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="1">
         <v>83</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="2">
         <v>37</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A39" s="12">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
         <v>43644</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="1">
         <v>93</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="4">
         <v>38</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="O39" s="4"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A40" s="12">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
         <v>43644</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="1">
         <v>114.25</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="2">
         <v>39</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A41" s="12">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
         <v>43644</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="1">
         <v>127.25</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="2">
         <v>40</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A42" s="12">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
         <v>43644</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="1">
         <v>137</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="2">
         <v>41</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A43" s="12">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
         <v>43644</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="1">
         <v>146.30000000000001</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="2">
         <v>42</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A44" s="12">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
         <v>43644</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="1">
         <v>157.5</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="2">
         <v>43</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A45" s="12">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
         <v>43644</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="1">
         <v>169.5</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="2">
         <v>44</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A46" s="12">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
         <v>43644</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="1">
         <v>179.75</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="2">
         <v>45</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A47" s="12">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
         <v>43648</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="1">
         <v>1.5</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="2">
         <v>46</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A48" s="12">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
         <v>43648</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="1">
         <v>6</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="2">
         <v>47</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="12">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
         <v>43648</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="1">
         <v>12</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="2">
         <v>48</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="12">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
         <v>43648</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="1">
         <v>27.2</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="2">
         <v>49</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="12">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
         <v>43648</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="1">
         <v>42.3</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="2">
         <v>50</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="12">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
         <v>43649</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="1">
         <v>3.5</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="2">
         <v>51</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="12">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
         <v>43649</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="1">
         <v>10.3</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="2">
         <v>52</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="12">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
         <v>43649</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="1">
         <v>24.7</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="2">
         <v>53</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="12">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
         <v>43649</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="1">
         <v>43.5</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="2">
         <v>54</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="12">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>43649</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="1">
         <v>62.8</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="2">
         <v>55</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="12">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
         <v>43649</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="1">
         <v>74.400000000000006</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="2">
         <v>56</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="12">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
         <v>43649</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="1">
         <v>87.1</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="2">
         <v>57</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="12">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="5">
         <v>43649</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="1">
         <v>2.5</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="2">
         <v>58</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="12">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="5">
         <v>43649</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="1">
         <v>7.68</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="2">
         <v>59</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="12">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
         <v>43649</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="1">
         <v>13.4</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="2">
         <v>60</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="12">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
         <v>43649</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="1">
         <v>21.7</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="2">
         <v>61</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="12">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="5">
         <v>43649</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="1">
         <v>33.700000000000003</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="2">
         <v>62</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="12">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="5">
         <v>43649</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="1">
         <v>44.8</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="2">
         <v>63</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="12">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
         <v>43649</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="1">
         <v>55</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="2">
         <v>64</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="12">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="5">
         <v>43649</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="1">
         <v>63.1</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="2">
         <v>65</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="12">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="5">
         <v>43650</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>72</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="1">
         <v>3</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="2">
         <v>66</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="12">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="5">
         <v>43650</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>72</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="1">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="2">
         <v>67</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="12">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="5">
         <v>43650</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>72</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="1">
         <v>13.5</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="2">
         <v>68</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E69" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="12">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="5">
         <v>43650</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="s">
         <v>72</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="1">
         <v>30</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="2">
         <v>69</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="12">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="5">
         <v>43650</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="1">
         <v>49.1</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="2">
         <v>70</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="12">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="5">
         <v>43650</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="1">
         <v>62.8</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="2">
         <v>71</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="12">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="5">
         <v>43650</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="1">
         <v>72.900000000000006</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="2">
         <v>72</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="12">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
         <v>43650</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="1">
         <v>83.1</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="2">
         <v>73</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="12">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="5">
         <v>43650</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>72</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="1">
         <v>91.3</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="2">
         <v>74</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="2"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="2"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="2"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="2"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="2"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="2"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" s="2"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" s="2"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" s="2"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" s="2"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" s="2"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" s="2"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" s="2"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" s="2"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" s="2"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" s="2"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" s="2"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" s="2"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" s="2"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="2"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" s="2"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" s="2"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" s="2"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="2"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" s="2"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" s="2"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" s="2"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" s="2"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" s="2"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" s="2"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" s="2"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" s="2"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" s="2"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" s="2"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" s="2"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" s="2"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" s="2"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" s="2"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" s="2"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" s="2"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" s="2"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" s="2"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" s="2"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" s="2"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122" s="2"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" s="2"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" s="2"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" s="2"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" s="2"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" s="2"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" s="2"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" s="2"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" s="2"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" s="2"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" s="2"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" s="2"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" s="2"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" s="2"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" s="2"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" s="2"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" s="2"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" s="2"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" s="2"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" s="2"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" s="2"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" s="2"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" s="2"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" s="2"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" s="2"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" s="2"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148" s="2"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149" s="2"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150" s="2"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" s="2"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A152" s="2"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A153" s="2"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A154" s="2"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A155" s="2"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A156" s="2"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A157" s="2"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A158" s="2"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A159" s="2"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A160" s="2"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A161" s="2"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A162" s="2"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A163" s="2"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A164" s="2"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A165" s="2"/>
-    </row>
   </sheetData>
-  <sortState ref="A2:BF334">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BF334">
     <sortCondition ref="D2:D334"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2217,6 +1918,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100483727557648AA40B029C215891F95C5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d36f379eec1cf084072dcf956aecbcf8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8c008993-a31f-4b40-b1f3-88dd9c6e1924" xmlns:ns4="360018dd-41eb-4458-b1d4-4b46a95a2b02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd1f472f1ef3281fe4dbeb8213942d38" ns3:_="" ns4:_="">
     <xsd:import namespace="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
@@ -2445,22 +2161,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6030EA3-5FAF-4F55-B9AE-0BBC026371FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA285087-E770-4932-8579-7D57DAA7445E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
+    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35EF5001-751B-4ADC-93F7-1E49B653DF52}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2477,29 +2203,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6030EA3-5FAF-4F55-B9AE-0BBC026371FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA285087-E770-4932-8579-7D57DAA7445E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>